--- a/Grid_5x5/Solutions/Solution_NDP_S072/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S072/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2754,7 +2754,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.99671071428571489</v>
+        <v>0.99671071428571434</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2774,7 +2774,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.9706285714285716</v>
+        <v>1.970628571428571</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -10175,10 +10175,10 @@
         <v>138.774</v>
       </c>
       <c r="M20" s="72">
-        <v>41.552</v>
+        <v>41.552000000000007</v>
       </c>
       <c r="N20" s="72">
-        <v>175.67499999999998</v>
+        <v>175.67500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -10216,13 +10216,13 @@
         <v>41.489999999999995</v>
       </c>
       <c r="L21" s="72">
-        <v>68.055000000000021</v>
+        <v>68.054999999999993</v>
       </c>
       <c r="M21" s="72">
         <v>107.62</v>
       </c>
       <c r="N21" s="72">
-        <v>109.54500000000002</v>
+        <v>109.54499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -11376,13 +11376,13 @@
         <v>15.369</v>
       </c>
       <c r="L49" s="72">
-        <v>31.295999999999999</v>
+        <v>31.295999999999992</v>
       </c>
       <c r="M49" s="72">
         <v>31.835000000000001</v>
       </c>
       <c r="N49" s="72">
-        <v>46.664999999999999</v>
+        <v>46.664999999999992</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="72">
-        <v>46.664999999999999</v>
+        <v>46.664999999999992</v>
       </c>
       <c r="N50" s="72">
         <v>0</v>
@@ -12049,7 +12049,7 @@
         <v>70</v>
       </c>
       <c r="K66" s="72">
-        <v>21.047000000000001</v>
+        <v>21.046999999999997</v>
       </c>
       <c r="L66" s="72">
         <v>0</v>
@@ -12058,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="72">
-        <v>21.047000000000001</v>
+        <v>21.046999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -13083,7 +13083,7 @@
         <v>61.219000000000023</v>
       </c>
       <c r="M91" s="72">
-        <v>29.331000000000003</v>
+        <v>29.331</v>
       </c>
       <c r="N91" s="72">
         <v>133.97500000000002</v>
@@ -13121,13 +13121,13 @@
         <v>70</v>
       </c>
       <c r="K92" s="72">
-        <v>41.305999999999997</v>
+        <v>41.306000000000012</v>
       </c>
       <c r="L92" s="72">
-        <v>61.191999999999993</v>
+        <v>61.191999999999979</v>
       </c>
       <c r="M92" s="72">
-        <v>72.782999999999987</v>
+        <v>72.783000000000001</v>
       </c>
       <c r="N92" s="72">
         <v>102.49799999999999</v>
@@ -13171,7 +13171,7 @@
         <v>84.130000000000024</v>
       </c>
       <c r="M93" s="72">
-        <v>18.367999999999999</v>
+        <v>18.368000000000002</v>
       </c>
       <c r="N93" s="72">
         <v>151.05900000000003</v>
@@ -13215,7 +13215,7 @@
         <v>68.48599999999999</v>
       </c>
       <c r="M94" s="72">
-        <v>82.573000000000008</v>
+        <v>82.572999999999993</v>
       </c>
       <c r="N94" s="72">
         <v>83.420999999999992</v>
@@ -14545,7 +14545,7 @@
         <v>70</v>
       </c>
       <c r="K126" s="72">
-        <v>79.149999999999991</v>
+        <v>79.150000000000006</v>
       </c>
       <c r="L126" s="72">
         <v>0</v>
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="N126" s="72">
-        <v>79.149999999999991</v>
+        <v>79.150000000000006</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -14683,7 +14683,7 @@
         <v>56.302</v>
       </c>
       <c r="M129" s="72">
-        <v>18.37</v>
+        <v>18.369999999999997</v>
       </c>
       <c r="N129" s="72">
         <v>89.497</v>
@@ -14724,13 +14724,13 @@
         <v>9.4969999999999999</v>
       </c>
       <c r="L130" s="72">
-        <v>54.396999999999991</v>
+        <v>54.397000000000006</v>
       </c>
       <c r="M130" s="72">
-        <v>35.099999999999994</v>
+        <v>35.100000000000009</v>
       </c>
       <c r="N130" s="72">
-        <v>63.893999999999991</v>
+        <v>63.894000000000005</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="72">
-        <v>63.893999999999991</v>
+        <v>63.894000000000005</v>
       </c>
       <c r="N131" s="72">
         <v>0</v>
@@ -16101,7 +16101,7 @@
         <v>70</v>
       </c>
       <c r="K163" s="72">
-        <v>28.948</v>
+        <v>28.948000000000004</v>
       </c>
       <c r="L163" s="72">
         <v>77.625</v>
@@ -16151,7 +16151,7 @@
         <v>43.553000000000004</v>
       </c>
       <c r="M164" s="72">
-        <v>63.019999999999989</v>
+        <v>63.02000000000001</v>
       </c>
       <c r="N164" s="72">
         <v>76.400000000000006</v>
@@ -16195,7 +16195,7 @@
         <v>63.854999999999997</v>
       </c>
       <c r="M165" s="72">
-        <v>12.545</v>
+        <v>12.544999999999998</v>
       </c>
       <c r="N165" s="72">
         <v>78.744</v>
@@ -16309,7 +16309,7 @@
         <v>70</v>
       </c>
       <c r="K168" s="72">
-        <v>104.25900000000001</v>
+        <v>104.25899999999999</v>
       </c>
       <c r="L168" s="72">
         <v>0</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="N168" s="72">
-        <v>104.25900000000001</v>
+        <v>104.25899999999999</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -17613,7 +17613,7 @@
         <v>70</v>
       </c>
       <c r="K199" s="72">
-        <v>10.608999999999998</v>
+        <v>10.609</v>
       </c>
       <c r="L199" s="72">
         <v>0</v>
@@ -17622,7 +17622,7 @@
         <v>11.754000000000001</v>
       </c>
       <c r="N199" s="72">
-        <v>10.608999999999998</v>
+        <v>10.609</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -17657,10 +17657,10 @@
         <v>70</v>
       </c>
       <c r="K200" s="72">
-        <v>10.725000000000001</v>
+        <v>10.725</v>
       </c>
       <c r="L200" s="72">
-        <v>8.1759999999999984</v>
+        <v>8.1760000000000002</v>
       </c>
       <c r="M200" s="72">
         <v>2.4329999999999998</v>
@@ -17745,16 +17745,16 @@
         <v>70</v>
       </c>
       <c r="K202" s="72">
-        <v>12.901</v>
+        <v>12.901000000000002</v>
       </c>
       <c r="L202" s="72">
-        <v>56.757999999999996</v>
+        <v>56.758000000000017</v>
       </c>
       <c r="M202" s="72">
         <v>16.558</v>
       </c>
       <c r="N202" s="72">
-        <v>69.658999999999992</v>
+        <v>69.65900000000002</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -17792,7 +17792,7 @@
         <v>0</v>
       </c>
       <c r="M203" s="72">
-        <v>69.658999999999992</v>
+        <v>69.65900000000002</v>
       </c>
       <c r="N203" s="72">
         <v>0</v>
@@ -18905,7 +18905,7 @@
         <v>70</v>
       </c>
       <c r="K230" s="72">
-        <v>26.670999999999999</v>
+        <v>26.671000000000003</v>
       </c>
       <c r="L230" s="72">
         <v>0</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="N230" s="72">
-        <v>26.670999999999999</v>
+        <v>26.671000000000003</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -18952,13 +18952,13 @@
         <v>24.295999999999999</v>
       </c>
       <c r="L231" s="72">
-        <v>11.302999999999997</v>
+        <v>11.303000000000004</v>
       </c>
       <c r="M231" s="72">
         <v>15.368</v>
       </c>
       <c r="N231" s="72">
-        <v>35.598999999999997</v>
+        <v>35.599000000000004</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -19002,7 +19002,7 @@
         <v>11.35</v>
       </c>
       <c r="N232" s="72">
-        <v>29.937000000000001</v>
+        <v>29.937000000000005</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -19040,7 +19040,7 @@
         <v>0</v>
       </c>
       <c r="M233" s="72">
-        <v>29.937000000000001</v>
+        <v>29.937000000000005</v>
       </c>
       <c r="N233" s="72">
         <v>0</v>
@@ -19936,13 +19936,13 @@
         <v>19.667999999999999</v>
       </c>
       <c r="L255" s="72">
-        <v>40.345999999999997</v>
+        <v>40.346000000000011</v>
       </c>
       <c r="M255" s="72">
         <v>9.129999999999999</v>
       </c>
       <c r="N255" s="72">
-        <v>60.013999999999996</v>
+        <v>60.01400000000001</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -19980,13 +19980,13 @@
         <v>3.5030000000000001</v>
       </c>
       <c r="L256" s="72">
-        <v>7.570999999999998</v>
+        <v>7.5710000000000015</v>
       </c>
       <c r="M256" s="72">
         <v>52.442999999999998</v>
       </c>
       <c r="N256" s="72">
-        <v>11.073999999999998</v>
+        <v>11.074000000000002</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="M257" s="72">
-        <v>11.073999999999998</v>
+        <v>11.074000000000002</v>
       </c>
       <c r="N257" s="72">
         <v>0</v>
@@ -21093,16 +21093,16 @@
         <v>70</v>
       </c>
       <c r="K283" s="72">
-        <v>120.14000000000001</v>
+        <v>120.14</v>
       </c>
       <c r="L283" s="72">
-        <v>103.16499999999999</v>
+        <v>103.16500000000003</v>
       </c>
       <c r="M283" s="72">
         <v>14.776</v>
       </c>
       <c r="N283" s="72">
-        <v>223.30500000000001</v>
+        <v>223.30500000000004</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -21137,16 +21137,16 @@
         <v>70</v>
       </c>
       <c r="K284" s="72">
-        <v>56.610999999999997</v>
+        <v>56.611000000000004</v>
       </c>
       <c r="L284" s="72">
-        <v>153.56500000000003</v>
+        <v>153.565</v>
       </c>
       <c r="M284" s="72">
         <v>69.740000000000009</v>
       </c>
       <c r="N284" s="72">
-        <v>210.17600000000002</v>
+        <v>210.17599999999999</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
@@ -21184,13 +21184,13 @@
         <v>41.489999999999995</v>
       </c>
       <c r="L285" s="72">
-        <v>85.271000000000015</v>
+        <v>85.271000000000001</v>
       </c>
       <c r="M285" s="72">
         <v>124.905</v>
       </c>
       <c r="N285" s="72">
-        <v>126.76100000000001</v>
+        <v>126.761</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
@@ -23209,7 +23209,7 @@
         <v>70</v>
       </c>
       <c r="K336" s="72">
-        <v>172.67400000000001</v>
+        <v>172.67400000000004</v>
       </c>
       <c r="L336" s="72">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="N336" s="72">
-        <v>172.67400000000001</v>
+        <v>172.67400000000004</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
@@ -23256,13 +23256,13 @@
         <v>6.9930000000000003</v>
       </c>
       <c r="L337" s="72">
-        <v>65.421000000000006</v>
+        <v>65.421000000000021</v>
       </c>
       <c r="M337" s="72">
-        <v>107.25299999999999</v>
+        <v>107.253</v>
       </c>
       <c r="N337" s="72">
-        <v>72.414000000000001</v>
+        <v>72.414000000000016</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="M338" s="72">
-        <v>72.414000000000001</v>
+        <v>72.414000000000016</v>
       </c>
       <c r="N338" s="72">
         <v>0</v>
@@ -23929,7 +23929,7 @@
         <v>70</v>
       </c>
       <c r="K354" s="72">
-        <v>127.83799999999999</v>
+        <v>127.83800000000002</v>
       </c>
       <c r="L354" s="72">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="N354" s="72">
-        <v>127.83799999999999</v>
+        <v>127.83800000000002</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
@@ -24649,7 +24649,7 @@
         <v>70</v>
       </c>
       <c r="K372" s="72">
-        <v>63.129000000000005</v>
+        <v>63.128999999999998</v>
       </c>
       <c r="L372" s="72">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="N372" s="72">
-        <v>63.129000000000005</v>
+        <v>63.128999999999998</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
@@ -25369,7 +25369,7 @@
         <v>70</v>
       </c>
       <c r="K390" s="72">
-        <v>21.047000000000001</v>
+        <v>21.046999999999997</v>
       </c>
       <c r="L390" s="72">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="N390" s="72">
-        <v>21.047000000000001</v>
+        <v>21.046999999999997</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.25">
@@ -26089,7 +26089,7 @@
         <v>70</v>
       </c>
       <c r="K408" s="72">
-        <v>102.17600000000002</v>
+        <v>102.176</v>
       </c>
       <c r="L408" s="72">
         <v>0</v>
@@ -26098,7 +26098,7 @@
         <v>0</v>
       </c>
       <c r="N408" s="72">
-        <v>102.17600000000002</v>
+        <v>102.176</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
@@ -26136,13 +26136,13 @@
         <v>13.633000000000001</v>
       </c>
       <c r="L409" s="72">
-        <v>65.704000000000008</v>
+        <v>65.703999999999994</v>
       </c>
       <c r="M409" s="72">
-        <v>36.471999999999994</v>
+        <v>36.472000000000001</v>
       </c>
       <c r="N409" s="72">
-        <v>79.337000000000003</v>
+        <v>79.336999999999989</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
@@ -26180,7 +26180,7 @@
         <v>0</v>
       </c>
       <c r="M410" s="72">
-        <v>79.337000000000003</v>
+        <v>79.336999999999989</v>
       </c>
       <c r="N410" s="72">
         <v>0</v>
@@ -26809,7 +26809,7 @@
         <v>70</v>
       </c>
       <c r="K426" s="72">
-        <v>126.57600000000002</v>
+        <v>126.57599999999999</v>
       </c>
       <c r="L426" s="72">
         <v>0</v>
@@ -26818,7 +26818,7 @@
         <v>0</v>
       </c>
       <c r="N426" s="72">
-        <v>126.57600000000002</v>
+        <v>126.57599999999999</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.25">
@@ -26853,16 +26853,16 @@
         <v>70</v>
       </c>
       <c r="K427" s="72">
-        <v>86.526999999999987</v>
+        <v>86.527000000000015</v>
       </c>
       <c r="L427" s="72">
-        <v>112.77400000000003</v>
+        <v>112.77399999999997</v>
       </c>
       <c r="M427" s="72">
         <v>13.802</v>
       </c>
       <c r="N427" s="72">
-        <v>199.30100000000002</v>
+        <v>199.30099999999999</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.25">
@@ -26900,7 +26900,7 @@
         <v>0</v>
       </c>
       <c r="M428" s="72">
-        <v>199.30100000000002</v>
+        <v>199.30099999999999</v>
       </c>
       <c r="N428" s="72">
         <v>0</v>
@@ -28705,7 +28705,7 @@
         <v>70</v>
       </c>
       <c r="K474" s="72">
-        <v>111.96800000000002</v>
+        <v>111.96799999999999</v>
       </c>
       <c r="L474" s="72">
         <v>0</v>
@@ -28714,7 +28714,7 @@
         <v>0</v>
       </c>
       <c r="N474" s="72">
-        <v>111.96800000000002</v>
+        <v>111.96799999999999</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.25">
@@ -28749,16 +28749,16 @@
         <v>70</v>
       </c>
       <c r="K475" s="72">
-        <v>36.611999999999995</v>
+        <v>36.612000000000009</v>
       </c>
       <c r="L475" s="72">
-        <v>83.529000000000025</v>
+        <v>83.528999999999996</v>
       </c>
       <c r="M475" s="72">
         <v>28.439</v>
       </c>
       <c r="N475" s="72">
-        <v>120.14100000000002</v>
+        <v>120.14100000000001</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.25">
@@ -28793,16 +28793,16 @@
         <v>70</v>
       </c>
       <c r="K476" s="72">
-        <v>38.692999999999998</v>
+        <v>38.693000000000005</v>
       </c>
       <c r="L476" s="72">
-        <v>51.734000000000009</v>
+        <v>51.733999999999988</v>
       </c>
       <c r="M476" s="72">
-        <v>68.406999999999996</v>
+        <v>68.407000000000011</v>
       </c>
       <c r="N476" s="72">
-        <v>90.427000000000007</v>
+        <v>90.426999999999992</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.25">
@@ -28843,7 +28843,7 @@
         <v>70.094000000000008</v>
       </c>
       <c r="M477" s="72">
-        <v>20.333000000000002</v>
+        <v>20.332999999999998</v>
       </c>
       <c r="N477" s="72">
         <v>125.80600000000001</v>
@@ -28887,7 +28887,7 @@
         <v>65.233000000000004</v>
       </c>
       <c r="M478" s="72">
-        <v>60.573000000000008</v>
+        <v>60.572999999999993</v>
       </c>
       <c r="N478" s="72">
         <v>79.647000000000006</v>
@@ -30264,13 +30264,13 @@
         <v>94.424000000000007</v>
       </c>
       <c r="L511" s="72">
-        <v>101.828</v>
+        <v>101.82799999999997</v>
       </c>
       <c r="M511" s="72">
-        <v>23.704999999999998</v>
+        <v>23.705000000000002</v>
       </c>
       <c r="N511" s="72">
-        <v>196.25200000000001</v>
+        <v>196.25199999999998</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
@@ -30393,16 +30393,16 @@
         <v>70</v>
       </c>
       <c r="K514" s="72">
-        <v>17.650000000000002</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="L514" s="72">
-        <v>46.438000000000002</v>
+        <v>46.437999999999995</v>
       </c>
       <c r="M514" s="72">
         <v>21.14</v>
       </c>
       <c r="N514" s="72">
-        <v>64.088000000000008</v>
+        <v>64.087999999999994</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.25">
@@ -31729,7 +31729,7 @@
         <v>70</v>
       </c>
       <c r="K546" s="72">
-        <v>125.40700000000001</v>
+        <v>125.40699999999998</v>
       </c>
       <c r="L546" s="72">
         <v>0</v>
@@ -31738,7 +31738,7 @@
         <v>0</v>
       </c>
       <c r="N546" s="72">
-        <v>125.40700000000001</v>
+        <v>125.40699999999998</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.25">
@@ -31776,13 +31776,13 @@
         <v>33.388999999999996</v>
       </c>
       <c r="L547" s="72">
-        <v>96.968000000000032</v>
+        <v>96.968000000000004</v>
       </c>
       <c r="M547" s="72">
         <v>28.439</v>
       </c>
       <c r="N547" s="72">
-        <v>130.35700000000003</v>
+        <v>130.357</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.25">
@@ -31817,13 +31817,13 @@
         <v>70</v>
       </c>
       <c r="K548" s="72">
-        <v>41.4</v>
+        <v>41.400000000000006</v>
       </c>
       <c r="L548" s="72">
-        <v>61.949999999999996</v>
+        <v>61.949999999999989</v>
       </c>
       <c r="M548" s="72">
-        <v>68.406999999999996</v>
+        <v>68.407000000000011</v>
       </c>
       <c r="N548" s="72">
         <v>103.35</v>
@@ -31908,13 +31908,13 @@
         <v>3.5060000000000002</v>
       </c>
       <c r="L550" s="72">
-        <v>61.334999999999994</v>
+        <v>61.335000000000008</v>
       </c>
       <c r="M550" s="72">
-        <v>50.925000000000004</v>
+        <v>50.924999999999997</v>
       </c>
       <c r="N550" s="72">
-        <v>64.840999999999994</v>
+        <v>64.841000000000008</v>
       </c>
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.25">
@@ -31952,7 +31952,7 @@
         <v>0</v>
       </c>
       <c r="M551" s="72">
-        <v>64.840999999999994</v>
+        <v>64.841000000000008</v>
       </c>
       <c r="N551" s="72">
         <v>0</v>
@@ -33285,7 +33285,7 @@
         <v>70</v>
       </c>
       <c r="K583" s="72">
-        <v>33.506999999999998</v>
+        <v>33.507000000000005</v>
       </c>
       <c r="L583" s="72">
         <v>100.83499999999998</v>
@@ -33420,13 +33420,13 @@
         <v>17.649000000000001</v>
       </c>
       <c r="L586" s="72">
-        <v>45.35</v>
+        <v>45.350000000000009</v>
       </c>
       <c r="M586" s="72">
         <v>17.060000000000002</v>
       </c>
       <c r="N586" s="72">
-        <v>62.999000000000002</v>
+        <v>62.999000000000009</v>
       </c>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.25">
@@ -34797,13 +34797,13 @@
         <v>70</v>
       </c>
       <c r="K619" s="72">
-        <v>35.260000000000005</v>
+        <v>35.26</v>
       </c>
       <c r="L619" s="72">
-        <v>123.96300000000001</v>
+        <v>123.96300000000002</v>
       </c>
       <c r="M619" s="72">
-        <v>26.432000000000002</v>
+        <v>26.431999999999999</v>
       </c>
       <c r="N619" s="72">
         <v>159.22300000000001</v>
@@ -34891,10 +34891,10 @@
         <v>90.09</v>
       </c>
       <c r="M621" s="72">
-        <v>30.823999999999995</v>
+        <v>30.824000000000005</v>
       </c>
       <c r="N621" s="72">
-        <v>100.26400000000001</v>
+        <v>100.264</v>
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.25">
@@ -34935,7 +34935,7 @@
         <v>37.429000000000002</v>
       </c>
       <c r="M622" s="72">
-        <v>62.835000000000008</v>
+        <v>62.834999999999994</v>
       </c>
       <c r="N622" s="72">
         <v>39.853999999999999</v>
@@ -36265,7 +36265,7 @@
         <v>70</v>
       </c>
       <c r="K654" s="72">
-        <v>94.011000000000024</v>
+        <v>94.010999999999996</v>
       </c>
       <c r="L654" s="72">
         <v>0</v>
@@ -36274,7 +36274,7 @@
         <v>0</v>
       </c>
       <c r="N654" s="72">
-        <v>94.011000000000024</v>
+        <v>94.010999999999996</v>
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.25">
@@ -36309,7 +36309,7 @@
         <v>70</v>
       </c>
       <c r="K655" s="72">
-        <v>61.624999999999993</v>
+        <v>61.625</v>
       </c>
       <c r="L655" s="72">
         <v>89.904999999999973</v>
@@ -36356,13 +36356,13 @@
         <v>24.344000000000001</v>
       </c>
       <c r="L656" s="72">
-        <v>136.23099999999997</v>
+        <v>136.23100000000002</v>
       </c>
       <c r="M656" s="72">
         <v>15.298999999999999</v>
       </c>
       <c r="N656" s="72">
-        <v>160.57499999999996</v>
+        <v>160.57500000000002</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.25">
@@ -36444,13 +36444,13 @@
         <v>4.5240000000000009</v>
       </c>
       <c r="L658" s="72">
-        <v>32.913999999999994</v>
+        <v>32.914000000000001</v>
       </c>
       <c r="M658" s="72">
         <v>24.169</v>
       </c>
       <c r="N658" s="72">
-        <v>37.437999999999995</v>
+        <v>37.438000000000002</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.25">
@@ -37777,7 +37777,7 @@
         <v>70</v>
       </c>
       <c r="K690" s="72">
-        <v>226.70199999999994</v>
+        <v>226.70199999999997</v>
       </c>
       <c r="L690" s="72">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>0</v>
       </c>
       <c r="N690" s="72">
-        <v>226.70199999999994</v>
+        <v>226.70199999999997</v>
       </c>
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.25">
@@ -37824,13 +37824,13 @@
         <v>19.234999999999999</v>
       </c>
       <c r="L691" s="72">
-        <v>210.49900000000002</v>
+        <v>210.49899999999997</v>
       </c>
       <c r="M691" s="72">
-        <v>16.203000000000003</v>
+        <v>16.202999999999999</v>
       </c>
       <c r="N691" s="72">
-        <v>229.73400000000004</v>
+        <v>229.73399999999998</v>
       </c>
     </row>
     <row r="692" spans="1:14" x14ac:dyDescent="0.25">
@@ -37956,13 +37956,13 @@
         <v>35.165000000000006</v>
       </c>
       <c r="L694" s="72">
-        <v>59.836999999999989</v>
+        <v>59.836999999999975</v>
       </c>
       <c r="M694" s="72">
-        <v>192.70900000000003</v>
+        <v>192.709</v>
       </c>
       <c r="N694" s="72">
-        <v>95.001999999999995</v>
+        <v>95.001999999999981</v>
       </c>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.25">
@@ -38000,7 +38000,7 @@
         <v>0</v>
       </c>
       <c r="M695" s="72">
-        <v>95.001999999999995</v>
+        <v>95.001999999999981</v>
       </c>
       <c r="N695" s="72">
         <v>0</v>
@@ -39289,7 +39289,7 @@
         <v>70</v>
       </c>
       <c r="K726" s="72">
-        <v>116.812</v>
+        <v>116.81199999999998</v>
       </c>
       <c r="L726" s="72">
         <v>0</v>
@@ -39298,7 +39298,7 @@
         <v>0</v>
       </c>
       <c r="N726" s="72">
-        <v>116.812</v>
+        <v>116.81199999999998</v>
       </c>
     </row>
     <row r="727" spans="1:14" x14ac:dyDescent="0.25">
@@ -39333,13 +39333,13 @@
         <v>70</v>
       </c>
       <c r="K727" s="72">
-        <v>40.656999999999996</v>
+        <v>40.657000000000004</v>
       </c>
       <c r="L727" s="72">
-        <v>30.291000000000011</v>
+        <v>30.291000000000004</v>
       </c>
       <c r="M727" s="72">
-        <v>86.520999999999987</v>
+        <v>86.521000000000001</v>
       </c>
       <c r="N727" s="72">
         <v>70.948000000000008</v>
@@ -39424,13 +39424,13 @@
         <v>3.835</v>
       </c>
       <c r="L729" s="72">
-        <v>41.783999999999999</v>
+        <v>41.784000000000006</v>
       </c>
       <c r="M729" s="72">
-        <v>12.004000000000001</v>
+        <v>12.004</v>
       </c>
       <c r="N729" s="72">
-        <v>45.619</v>
+        <v>45.619000000000007</v>
       </c>
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.25">
@@ -39468,13 +39468,13 @@
         <v>2.0529999999999999</v>
       </c>
       <c r="L730" s="72">
-        <v>37.893000000000001</v>
+        <v>37.893000000000015</v>
       </c>
       <c r="M730" s="72">
-        <v>7.726</v>
+        <v>7.7259999999999991</v>
       </c>
       <c r="N730" s="72">
-        <v>39.945999999999998</v>
+        <v>39.946000000000012</v>
       </c>
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.25">
@@ -40801,7 +40801,7 @@
         <v>70</v>
       </c>
       <c r="K762" s="72">
-        <v>100.66899999999998</v>
+        <v>100.66900000000001</v>
       </c>
       <c r="L762" s="72">
         <v>0</v>
@@ -40810,7 +40810,7 @@
         <v>0</v>
       </c>
       <c r="N762" s="72">
-        <v>100.66899999999998</v>
+        <v>100.66900000000001</v>
       </c>
     </row>
     <row r="763" spans="1:14" x14ac:dyDescent="0.25">
@@ -40845,13 +40845,13 @@
         <v>70</v>
       </c>
       <c r="K763" s="72">
-        <v>12.783999999999999</v>
+        <v>12.784000000000001</v>
       </c>
       <c r="L763" s="72">
         <v>54.814</v>
       </c>
       <c r="M763" s="72">
-        <v>45.854999999999997</v>
+        <v>45.855000000000004</v>
       </c>
       <c r="N763" s="72">
         <v>67.597999999999999</v>
@@ -42407,10 +42407,10 @@
         <v>158.536</v>
       </c>
       <c r="M800" s="72">
-        <v>18.998000000000005</v>
+        <v>18.998000000000001</v>
       </c>
       <c r="N800" s="72">
-        <v>178.55699999999999</v>
+        <v>178.55700000000002</v>
       </c>
     </row>
     <row r="801" spans="1:14" x14ac:dyDescent="0.25">
@@ -42448,13 +42448,13 @@
         <v>53.833999999999996</v>
       </c>
       <c r="L801" s="72">
-        <v>39.020000000000003</v>
+        <v>39.020000000000017</v>
       </c>
       <c r="M801" s="72">
-        <v>139.53700000000003</v>
+        <v>139.53699999999998</v>
       </c>
       <c r="N801" s="72">
-        <v>92.853999999999999</v>
+        <v>92.854000000000013</v>
       </c>
     </row>
     <row r="802" spans="1:14" x14ac:dyDescent="0.25">
@@ -43825,7 +43825,7 @@
         <v>70</v>
       </c>
       <c r="K834" s="72">
-        <v>98.535000000000011</v>
+        <v>98.534999999999997</v>
       </c>
       <c r="L834" s="72">
         <v>0</v>
@@ -43834,7 +43834,7 @@
         <v>0</v>
       </c>
       <c r="N834" s="72">
-        <v>98.535000000000011</v>
+        <v>98.534999999999997</v>
       </c>
     </row>
     <row r="835" spans="1:14" x14ac:dyDescent="0.25">
@@ -43869,7 +43869,7 @@
         <v>70</v>
       </c>
       <c r="K835" s="72">
-        <v>10.986000000000001</v>
+        <v>10.986000000000002</v>
       </c>
       <c r="L835" s="72">
         <v>82.334999999999994</v>
@@ -44001,13 +44001,13 @@
         <v>70</v>
       </c>
       <c r="K838" s="72">
-        <v>16.741999999999997</v>
+        <v>16.742000000000001</v>
       </c>
       <c r="L838" s="72">
         <v>65.445999999999998</v>
       </c>
       <c r="M838" s="72">
-        <v>53.596000000000004</v>
+        <v>53.595999999999989</v>
       </c>
       <c r="N838" s="72">
         <v>82.188000000000002</v>
@@ -45472,13 +45472,13 @@
         <v>3.835</v>
       </c>
       <c r="L873" s="72">
-        <v>21.098999999999997</v>
+        <v>21.099</v>
       </c>
       <c r="M873" s="72">
         <v>11.154</v>
       </c>
       <c r="N873" s="72">
-        <v>24.933999999999997</v>
+        <v>24.934000000000001</v>
       </c>
     </row>
     <row r="874" spans="1:14" x14ac:dyDescent="0.25">
@@ -45516,13 +45516,13 @@
         <v>2.0529999999999999</v>
       </c>
       <c r="L874" s="72">
-        <v>15.317999999999998</v>
+        <v>15.318000000000001</v>
       </c>
       <c r="M874" s="72">
         <v>9.6159999999999997</v>
       </c>
       <c r="N874" s="72">
-        <v>17.370999999999999</v>
+        <v>17.371000000000002</v>
       </c>
     </row>
     <row r="875" spans="1:14" x14ac:dyDescent="0.25">
@@ -46849,7 +46849,7 @@
         <v>70</v>
       </c>
       <c r="K906" s="72">
-        <v>113.26100000000001</v>
+        <v>113.261</v>
       </c>
       <c r="L906" s="72">
         <v>0</v>
@@ -46858,7 +46858,7 @@
         <v>0</v>
       </c>
       <c r="N906" s="72">
-        <v>113.26100000000001</v>
+        <v>113.261</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.25">
@@ -46893,16 +46893,16 @@
         <v>70</v>
       </c>
       <c r="K907" s="72">
-        <v>58.457000000000008</v>
+        <v>58.457000000000001</v>
       </c>
       <c r="L907" s="72">
-        <v>42.349000000000004</v>
+        <v>42.348999999999997</v>
       </c>
       <c r="M907" s="72">
         <v>70.912000000000006</v>
       </c>
       <c r="N907" s="72">
-        <v>100.80600000000001</v>
+        <v>100.806</v>
       </c>
     </row>
     <row r="908" spans="1:14" x14ac:dyDescent="0.25">
@@ -46937,16 +46937,16 @@
         <v>70</v>
       </c>
       <c r="K908" s="72">
-        <v>210.08799999999999</v>
+        <v>210.08800000000002</v>
       </c>
       <c r="L908" s="72">
-        <v>39.563999999999993</v>
+        <v>39.564000000000021</v>
       </c>
       <c r="M908" s="72">
         <v>61.242000000000004</v>
       </c>
       <c r="N908" s="72">
-        <v>249.65199999999999</v>
+        <v>249.65200000000004</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.25">
@@ -46987,7 +46987,7 @@
         <v>201.233</v>
       </c>
       <c r="M909" s="72">
-        <v>48.418999999999997</v>
+        <v>48.419000000000004</v>
       </c>
       <c r="N909" s="72">
         <v>216.17099999999999</v>
@@ -48332,7 +48332,7 @@
         <v>0</v>
       </c>
       <c r="M941" s="72">
-        <v>65.862000000000009</v>
+        <v>65.861999999999995</v>
       </c>
       <c r="N941" s="72">
         <v>0</v>
@@ -48408,13 +48408,13 @@
         <v>24.597999999999999</v>
       </c>
       <c r="L943" s="72">
-        <v>34.195999999999998</v>
+        <v>34.196000000000005</v>
       </c>
       <c r="M943" s="72">
         <v>2.4329999999999998</v>
       </c>
       <c r="N943" s="72">
-        <v>58.793999999999997</v>
+        <v>58.794000000000004</v>
       </c>
     </row>
     <row r="944" spans="1:14" x14ac:dyDescent="0.25">
@@ -48493,13 +48493,13 @@
         <v>70</v>
       </c>
       <c r="K945" s="72">
-        <v>86.261999999999986</v>
+        <v>86.262</v>
       </c>
       <c r="L945" s="72">
-        <v>32.457000000000008</v>
+        <v>32.456999999999994</v>
       </c>
       <c r="M945" s="72">
-        <v>69.22</v>
+        <v>69.220000000000013</v>
       </c>
       <c r="N945" s="72">
         <v>118.71899999999999</v>
@@ -48537,16 +48537,16 @@
         <v>70</v>
       </c>
       <c r="K946" s="72">
-        <v>17.062000000000005</v>
+        <v>17.062000000000001</v>
       </c>
       <c r="L946" s="72">
-        <v>70.429999999999978</v>
+        <v>70.430000000000007</v>
       </c>
       <c r="M946" s="72">
         <v>48.289000000000001</v>
       </c>
       <c r="N946" s="72">
-        <v>87.49199999999999</v>
+        <v>87.492000000000004</v>
       </c>
     </row>
     <row r="947" spans="1:14" x14ac:dyDescent="0.25">
@@ -50348,7 +50348,7 @@
         <v>0</v>
       </c>
       <c r="M989" s="72">
-        <v>47.00800000000001</v>
+        <v>47.008000000000003</v>
       </c>
       <c r="N989" s="72">
         <v>0</v>
@@ -50421,10 +50421,10 @@
         <v>70</v>
       </c>
       <c r="K991" s="72">
-        <v>33.653999999999996</v>
+        <v>33.654000000000003</v>
       </c>
       <c r="L991" s="72">
-        <v>30.236000000000004</v>
+        <v>30.235999999999997</v>
       </c>
       <c r="M991" s="72">
         <v>1.234</v>
@@ -50556,13 +50556,13 @@
         <v>15.38</v>
       </c>
       <c r="L994" s="72">
-        <v>64.154000000000011</v>
+        <v>64.153999999999996</v>
       </c>
       <c r="M994" s="72">
         <v>37.387999999999998</v>
       </c>
       <c r="N994" s="72">
-        <v>79.534000000000006</v>
+        <v>79.533999999999992</v>
       </c>
     </row>
     <row r="995" spans="1:14" x14ac:dyDescent="0.25">
@@ -50600,7 +50600,7 @@
         <v>0</v>
       </c>
       <c r="M995" s="72">
-        <v>79.534000000000006</v>
+        <v>79.533999999999992</v>
       </c>
       <c r="N995" s="72">
         <v>0</v>
@@ -50629,7 +50629,7 @@
         <v>70</v>
       </c>
       <c r="K996" s="72">
-        <v>57.818000000000012</v>
+        <v>57.817999999999998</v>
       </c>
       <c r="L996" s="72">
         <v>0</v>
@@ -50638,7 +50638,7 @@
         <v>0</v>
       </c>
       <c r="N996" s="72">
-        <v>57.818000000000012</v>
+        <v>57.817999999999998</v>
       </c>
     </row>
     <row r="997" spans="1:14" x14ac:dyDescent="0.25">
@@ -50723,7 +50723,7 @@
         <v>97.810999999999993</v>
       </c>
       <c r="M998" s="72">
-        <v>27.137</v>
+        <v>27.137000000000004</v>
       </c>
       <c r="N998" s="72">
         <v>137.54599999999999</v>
@@ -50761,10 +50761,10 @@
         <v>70</v>
       </c>
       <c r="K999" s="72">
-        <v>59.286999999999992</v>
+        <v>59.286999999999999</v>
       </c>
       <c r="L999" s="72">
-        <v>61.844000000000008</v>
+        <v>61.844000000000001</v>
       </c>
       <c r="M999" s="72">
         <v>75.701999999999998</v>
@@ -50808,13 +50808,13 @@
         <v>5.7479999999999993</v>
       </c>
       <c r="L1000" s="72">
-        <v>47.718000000000004</v>
+        <v>47.718000000000011</v>
       </c>
       <c r="M1000" s="72">
         <v>73.413000000000011</v>
       </c>
       <c r="N1000" s="72">
-        <v>53.466000000000001</v>
+        <v>53.466000000000008</v>
       </c>
     </row>
     <row r="1001" spans="1:14" x14ac:dyDescent="0.25">
@@ -53120,7 +53120,7 @@
         <v>0</v>
       </c>
       <c r="M1055" s="72">
-        <v>11.455000000000002</v>
+        <v>11.455</v>
       </c>
       <c r="N1055" s="72">
         <v>0</v>
@@ -53237,13 +53237,13 @@
         <v>70</v>
       </c>
       <c r="K1058" s="72">
-        <v>28.605999999999998</v>
+        <v>28.606000000000002</v>
       </c>
       <c r="L1058" s="72">
-        <v>31.657999999999998</v>
+        <v>31.657999999999994</v>
       </c>
       <c r="M1058" s="72">
-        <v>94.789999999999992</v>
+        <v>94.79000000000002</v>
       </c>
       <c r="N1058" s="72">
         <v>60.263999999999996</v>
@@ -53328,13 +53328,13 @@
         <v>1.8660000000000001</v>
       </c>
       <c r="L1060" s="72">
-        <v>21.604000000000003</v>
+        <v>21.603999999999999</v>
       </c>
       <c r="M1060" s="72">
-        <v>36.084000000000003</v>
+        <v>36.083999999999996</v>
       </c>
       <c r="N1060" s="72">
-        <v>23.470000000000002</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.25">
@@ -53372,7 +53372,7 @@
         <v>0</v>
       </c>
       <c r="M1061" s="72">
-        <v>23.470000000000002</v>
+        <v>23.47</v>
       </c>
       <c r="N1061" s="72">
         <v>0</v>
@@ -53489,16 +53489,16 @@
         <v>70</v>
       </c>
       <c r="K1064" s="72">
-        <v>18.965000000000003</v>
+        <v>18.965</v>
       </c>
       <c r="L1064" s="72">
-        <v>29.535999999999994</v>
+        <v>29.535999999999991</v>
       </c>
       <c r="M1064" s="72">
-        <v>128.61099999999999</v>
+        <v>128.61100000000002</v>
       </c>
       <c r="N1064" s="72">
-        <v>48.500999999999998</v>
+        <v>48.500999999999991</v>
       </c>
     </row>
     <row r="1065" spans="1:14" x14ac:dyDescent="0.25">
@@ -53536,13 +53536,13 @@
         <v>16.456000000000003</v>
       </c>
       <c r="L1065" s="72">
-        <v>20.042999999999992</v>
+        <v>20.042999999999999</v>
       </c>
       <c r="M1065" s="72">
-        <v>28.458000000000002</v>
+        <v>28.457999999999998</v>
       </c>
       <c r="N1065" s="72">
-        <v>36.498999999999995</v>
+        <v>36.499000000000002</v>
       </c>
     </row>
     <row r="1066" spans="1:14" x14ac:dyDescent="0.25">
@@ -53586,7 +53586,7 @@
         <v>25.588000000000001</v>
       </c>
       <c r="N1066" s="72">
-        <v>12.002000000000002</v>
+        <v>12.002000000000001</v>
       </c>
     </row>
     <row r="1067" spans="1:14" x14ac:dyDescent="0.25">
@@ -57693,13 +57693,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930249999999994</v>
+        <v>46.930250000000001</v>
       </c>
       <c r="H7" s="72">
         <v>280</v>
       </c>
       <c r="I7" s="76">
-        <v>0.1676080357142857</v>
+        <v>0.16760803571428573</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -57780,13 +57780,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44325000000021</v>
+        <v>296.44324999999992</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.84698071428571486</v>
+        <v>0.84698071428571409</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -57809,13 +57809,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.063999999999965</v>
+        <v>76.064000000000021</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571418</v>
+        <v>0.21732571428571434</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -57896,13 +57896,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="72">
-        <v>80.989750000000015</v>
+        <v>80.989750000000001</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.57849821428571435</v>
+        <v>0.57849821428571424</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -57925,13 +57925,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>103.20675000000004</v>
+        <v>103.20675000000003</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.73719107142857176</v>
+        <v>0.73719107142857165</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -57954,13 +57954,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>418.61850000000027</v>
+        <v>418.61850000000004</v>
       </c>
       <c r="H16" s="72">
         <v>420</v>
       </c>
       <c r="I16" s="76">
-        <v>0.99671071428571489</v>
+        <v>0.99671071428571434</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -57983,13 +57983,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="72">
-        <v>156.18149999999994</v>
+        <v>156.1815</v>
       </c>
       <c r="H17" s="72">
         <v>420</v>
       </c>
       <c r="I17" s="76">
-        <v>0.37186071428571416</v>
+        <v>0.37186071428571427</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -58012,13 +58012,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.899999999999977</v>
+        <v>40.900000000000034</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.58428571428571396</v>
+        <v>0.58428571428571474</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -58041,13 +58041,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378000000000007</v>
+        <v>50.378000000000021</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571437</v>
+        <v>0.7196857142857146</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -58186,13 +58186,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135750000000002</v>
+        <v>61.135749999999987</v>
       </c>
       <c r="H24" s="72">
         <v>70</v>
       </c>
       <c r="I24" s="76">
-        <v>0.87336785714285714</v>
+        <v>0.87336785714285692</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -58215,13 +58215,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853500000000039</v>
+        <v>43.853499999999997</v>
       </c>
       <c r="H25" s="72">
         <v>70</v>
       </c>
       <c r="I25" s="76">
-        <v>0.626478571428572</v>
+        <v>0.62647857142857133</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -58302,13 +58302,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="72">
-        <v>178.53650000000002</v>
+        <v>178.53649999999999</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.85017380952380961</v>
+        <v>0.8501738095238095</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -58331,13 +58331,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>126.28975000000005</v>
+        <v>126.28975000000003</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.60137976190476217</v>
+        <v>0.60137976190476206</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -58418,13 +58418,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>121.27875000000002</v>
+        <v>121.27874999999997</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.57751785714285719</v>
+        <v>0.57751785714285697</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -58447,13 +58447,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>175.43350000000001</v>
+        <v>175.43350000000004</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.83539761904761911</v>
+        <v>0.83539761904761922</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -58476,13 +58476,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>724.85199999999918</v>
+        <v>724.8520000000002</v>
       </c>
       <c r="H34" s="72">
         <v>770</v>
       </c>
       <c r="I34" s="76">
-        <v>0.94136623376623274</v>
+        <v>0.94136623376623407</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -58505,13 +58505,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>304.2177499999998</v>
+        <v>304.21774999999985</v>
       </c>
       <c r="H35" s="72">
         <v>770</v>
       </c>
       <c r="I35" s="76">
-        <v>0.39508798701298675</v>
+        <v>0.39508798701298681</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -58534,13 +58534,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>43.74349999999999</v>
+        <v>43.743500000000012</v>
       </c>
       <c r="H36" s="72">
         <v>70</v>
       </c>
       <c r="I36" s="76">
-        <v>0.62490714285714277</v>
+        <v>0.62490714285714299</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -58563,13 +58563,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>59.180750000000003</v>
+        <v>59.18075000000001</v>
       </c>
       <c r="H37" s="72">
         <v>70</v>
       </c>
       <c r="I37" s="76">
-        <v>0.84543928571428573</v>
+        <v>0.84543928571428584</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -58708,13 +58708,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>64.462500000000006</v>
+        <v>64.462499999999991</v>
       </c>
       <c r="H42" s="72">
         <v>70</v>
       </c>
       <c r="I42" s="76">
-        <v>0.92089285714285718</v>
+        <v>0.92089285714285707</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -58737,13 +58737,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>38.313249999999989</v>
+        <v>38.313250000000004</v>
       </c>
       <c r="H43" s="72">
         <v>70</v>
       </c>
       <c r="I43" s="76">
-        <v>0.54733214285714271</v>
+        <v>0.54733214285714293</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -58940,13 +58940,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>124.49674999999992</v>
+        <v>124.49675000000012</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.59284166666666627</v>
+        <v>0.59284166666666727</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -58969,13 +58969,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>188.66499999999991</v>
+        <v>188.66499999999999</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.89840476190476148</v>
+        <v>0.89840476190476182</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -58998,13 +58998,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>413.38475</v>
+        <v>413.38474999999971</v>
       </c>
       <c r="H52" s="72">
         <v>560</v>
       </c>
       <c r="I52" s="76">
-        <v>0.73818705357142855</v>
+        <v>0.73818705357142811</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -59027,13 +59027,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>525.0687499999998</v>
+        <v>525.06874999999957</v>
       </c>
       <c r="H53" s="72">
         <v>560</v>
       </c>
       <c r="I53" s="76">
-        <v>0.93762276785714249</v>
+        <v>0.93762276785714205</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -59056,13 +59056,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.967250000000007</v>
+        <v>43.967250000000021</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.62810357142857154</v>
+        <v>0.62810357142857176</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -59085,13 +59085,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393749999999997</v>
+        <v>63.393750000000011</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
       </c>
       <c r="I55" s="76">
-        <v>0.90562500000000001</v>
+        <v>0.90562500000000012</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -59230,13 +59230,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>62.991</v>
+        <v>62.990999999999993</v>
       </c>
       <c r="H60" s="72">
         <v>70</v>
       </c>
       <c r="I60" s="76">
-        <v>0.89987142857142854</v>
+        <v>0.89987142857142843</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -59259,13 +59259,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="72">
-        <v>42.27375</v>
+        <v>42.273749999999993</v>
       </c>
       <c r="H61" s="72">
         <v>70</v>
       </c>
       <c r="I61" s="76">
-        <v>0.6039107142857143</v>
+        <v>0.60391071428571419</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -59346,13 +59346,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>183.98974999999999</v>
+        <v>183.98974999999996</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.8761416666666666</v>
+        <v>0.87614166666666649</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -59375,7 +59375,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>120.04725000000003</v>
+        <v>120.04725000000002</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
@@ -59462,13 +59462,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>128.22174999999999</v>
+        <v>128.22175000000001</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.61057976190476182</v>
+        <v>0.61057976190476193</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -59491,13 +59491,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>166.96599999999998</v>
+        <v>166.96600000000004</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.79507619047619038</v>
+        <v>0.7950761904761906</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -59520,13 +59520,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>263.18924999999962</v>
+        <v>263.1892499999999</v>
       </c>
       <c r="H70" s="72">
         <v>280</v>
       </c>
       <c r="I70" s="76">
-        <v>0.93996160714285582</v>
+        <v>0.93996160714285681</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -59549,13 +59549,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>219.7157499999999</v>
+        <v>219.71575000000001</v>
       </c>
       <c r="H71" s="72">
         <v>280</v>
       </c>
       <c r="I71" s="76">
-        <v>0.78469910714285673</v>
+        <v>0.78469910714285718</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -59578,13 +59578,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395249999999976</v>
+        <v>45.395250000000011</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>0.64850357142857107</v>
+        <v>0.64850357142857162</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -59752,13 +59752,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.47775</v>
+        <v>54.477750000000007</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.77825357142857143</v>
+        <v>0.77825357142857154</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -59781,13 +59781,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.890000000000008</v>
+        <v>35.890000000000015</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.51271428571428579</v>
+        <v>0.5127142857142859</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -59839,13 +59839,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>71.546750000000017</v>
+        <v>71.546750000000031</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.51104821428571445</v>
+        <v>0.51104821428571456</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -59868,13 +59868,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11725000000004</v>
+        <v>192.11724999999998</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.91484404761904781</v>
+        <v>0.91484404761904758</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -59897,13 +59897,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.186749999999989</v>
+        <v>86.186749999999975</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.41041309523809516</v>
+        <v>0.4104130952380951</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -59926,13 +59926,13 @@
         <v>0</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125000000003</v>
+        <v>168.25125000000006</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.8011964285714287</v>
+        <v>0.80119642857142881</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -59955,13 +59955,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.551999999999992</v>
+        <v>40.551999999999985</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476186</v>
+        <v>0.19310476190476183</v>
       </c>
     </row>
   </sheetData>

--- a/Grid_5x5/Solutions/Solution_NDP_S072/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
+++ b/Grid_5x5/Solutions/Solution_NDP_S072/Spreadsheet/VIS17_PuTAss_CapaRestNo_InterlYes_v04.xlsx
@@ -2693,7 +2693,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="38">
-        <v>26.788272094402434</v>
+        <v>26.788272094402441</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>129</v>
@@ -2713,7 +2713,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>27.31424207758085</v>
+        <v>27.314242077580865</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2733,7 +2733,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.38746148505760164</v>
+        <v>0.38746148505760175</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2754,7 +2754,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.99671071428571434</v>
+        <v>0.99671071428571456</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2774,7 +2774,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.970628571428571</v>
+        <v>1.9706285714285716</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -10081,7 +10081,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="72">
-        <v>138.376</v>
+        <v>138.37599999999998</v>
       </c>
       <c r="L18" s="72">
         <v>0</v>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="72">
-        <v>138.376</v>
+        <v>138.37599999999998</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -10175,7 +10175,7 @@
         <v>138.774</v>
       </c>
       <c r="M20" s="72">
-        <v>41.552000000000007</v>
+        <v>41.552</v>
       </c>
       <c r="N20" s="72">
         <v>175.67500000000001</v>
@@ -10213,16 +10213,16 @@
         <v>70</v>
       </c>
       <c r="K21" s="72">
-        <v>41.489999999999995</v>
+        <v>41.49</v>
       </c>
       <c r="L21" s="72">
-        <v>68.054999999999993</v>
+        <v>68.055000000000007</v>
       </c>
       <c r="M21" s="72">
         <v>107.62</v>
       </c>
       <c r="N21" s="72">
-        <v>109.54499999999999</v>
+        <v>109.545</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -11376,13 +11376,13 @@
         <v>15.369</v>
       </c>
       <c r="L49" s="72">
-        <v>31.295999999999992</v>
+        <v>31.296000000000006</v>
       </c>
       <c r="M49" s="72">
         <v>31.835000000000001</v>
       </c>
       <c r="N49" s="72">
-        <v>46.664999999999992</v>
+        <v>46.665000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="72">
-        <v>46.664999999999992</v>
+        <v>46.665000000000006</v>
       </c>
       <c r="N50" s="72">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>70</v>
       </c>
       <c r="K90" s="72">
-        <v>90.550000000000011</v>
+        <v>90.55</v>
       </c>
       <c r="L90" s="72">
         <v>0</v>
@@ -13042,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="N90" s="72">
-        <v>90.550000000000011</v>
+        <v>90.55</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -13080,13 +13080,13 @@
         <v>72.756</v>
       </c>
       <c r="L91" s="72">
-        <v>61.219000000000023</v>
+        <v>61.218999999999966</v>
       </c>
       <c r="M91" s="72">
-        <v>29.331</v>
+        <v>29.331000000000003</v>
       </c>
       <c r="N91" s="72">
-        <v>133.97500000000002</v>
+        <v>133.97499999999997</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -13121,10 +13121,10 @@
         <v>70</v>
       </c>
       <c r="K92" s="72">
-        <v>41.306000000000012</v>
+        <v>41.305999999999997</v>
       </c>
       <c r="L92" s="72">
-        <v>61.191999999999979</v>
+        <v>61.191999999999993</v>
       </c>
       <c r="M92" s="72">
         <v>72.783000000000001</v>
@@ -13168,13 +13168,13 @@
         <v>66.929000000000002</v>
       </c>
       <c r="L93" s="72">
-        <v>84.130000000000024</v>
+        <v>84.13</v>
       </c>
       <c r="M93" s="72">
         <v>18.368000000000002</v>
       </c>
       <c r="N93" s="72">
-        <v>151.05900000000003</v>
+        <v>151.059</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -13212,13 +13212,13 @@
         <v>14.935</v>
       </c>
       <c r="L94" s="72">
-        <v>68.48599999999999</v>
+        <v>68.486000000000004</v>
       </c>
       <c r="M94" s="72">
-        <v>82.572999999999993</v>
+        <v>82.573000000000008</v>
       </c>
       <c r="N94" s="72">
-        <v>83.420999999999992</v>
+        <v>83.421000000000006</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -13256,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="72">
-        <v>83.420999999999992</v>
+        <v>83.421000000000006</v>
       </c>
       <c r="N95" s="72">
         <v>0</v>
@@ -14636,13 +14636,13 @@
         <v>37.679000000000002</v>
       </c>
       <c r="L128" s="72">
-        <v>36.993000000000009</v>
+        <v>36.992999999999995</v>
       </c>
       <c r="M128" s="72">
         <v>72.786000000000001</v>
       </c>
       <c r="N128" s="72">
-        <v>74.672000000000011</v>
+        <v>74.671999999999997</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -14677,16 +14677,16 @@
         <v>70</v>
       </c>
       <c r="K129" s="72">
-        <v>33.195</v>
+        <v>33.194999999999993</v>
       </c>
       <c r="L129" s="72">
-        <v>56.302</v>
+        <v>56.301999999999992</v>
       </c>
       <c r="M129" s="72">
-        <v>18.369999999999997</v>
+        <v>18.370000000000005</v>
       </c>
       <c r="N129" s="72">
-        <v>89.497</v>
+        <v>89.496999999999986</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -14727,7 +14727,7 @@
         <v>54.397000000000006</v>
       </c>
       <c r="M130" s="72">
-        <v>35.100000000000009</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="N130" s="72">
         <v>63.894000000000005</v>
@@ -16101,7 +16101,7 @@
         <v>70</v>
       </c>
       <c r="K163" s="72">
-        <v>28.948000000000004</v>
+        <v>28.948</v>
       </c>
       <c r="L163" s="72">
         <v>77.625</v>
@@ -16151,7 +16151,7 @@
         <v>43.553000000000004</v>
       </c>
       <c r="M164" s="72">
-        <v>63.02000000000001</v>
+        <v>63.019999999999996</v>
       </c>
       <c r="N164" s="72">
         <v>76.400000000000006</v>
@@ -16195,7 +16195,7 @@
         <v>63.854999999999997</v>
       </c>
       <c r="M165" s="72">
-        <v>12.544999999999998</v>
+        <v>12.545</v>
       </c>
       <c r="N165" s="72">
         <v>78.744</v>
@@ -16233,7 +16233,7 @@
         <v>70</v>
       </c>
       <c r="K166" s="72">
-        <v>33.694000000000003</v>
+        <v>33.693999999999996</v>
       </c>
       <c r="L166" s="72">
         <v>0</v>
@@ -16242,7 +16242,7 @@
         <v>78.744</v>
       </c>
       <c r="N166" s="72">
-        <v>33.694000000000003</v>
+        <v>33.693999999999996</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -16280,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="M167" s="72">
-        <v>33.694000000000003</v>
+        <v>33.693999999999996</v>
       </c>
       <c r="N167" s="72">
         <v>0</v>
@@ -16309,7 +16309,7 @@
         <v>70</v>
       </c>
       <c r="K168" s="72">
-        <v>104.25899999999999</v>
+        <v>104.259</v>
       </c>
       <c r="L168" s="72">
         <v>0</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="N168" s="72">
-        <v>104.25899999999999</v>
+        <v>104.259</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -17657,10 +17657,10 @@
         <v>70</v>
       </c>
       <c r="K200" s="72">
-        <v>10.725</v>
+        <v>10.725000000000001</v>
       </c>
       <c r="L200" s="72">
-        <v>8.1760000000000002</v>
+        <v>8.1759999999999984</v>
       </c>
       <c r="M200" s="72">
         <v>2.4329999999999998</v>
@@ -17745,16 +17745,16 @@
         <v>70</v>
       </c>
       <c r="K202" s="72">
-        <v>12.901000000000002</v>
+        <v>12.901</v>
       </c>
       <c r="L202" s="72">
-        <v>56.758000000000017</v>
+        <v>56.757999999999996</v>
       </c>
       <c r="M202" s="72">
         <v>16.558</v>
       </c>
       <c r="N202" s="72">
-        <v>69.65900000000002</v>
+        <v>69.658999999999992</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -17792,7 +17792,7 @@
         <v>0</v>
       </c>
       <c r="M203" s="72">
-        <v>69.65900000000002</v>
+        <v>69.658999999999992</v>
       </c>
       <c r="N203" s="72">
         <v>0</v>
@@ -18905,7 +18905,7 @@
         <v>70</v>
       </c>
       <c r="K230" s="72">
-        <v>26.671000000000003</v>
+        <v>26.670999999999999</v>
       </c>
       <c r="L230" s="72">
         <v>0</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="N230" s="72">
-        <v>26.671000000000003</v>
+        <v>26.670999999999999</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -18952,13 +18952,13 @@
         <v>24.295999999999999</v>
       </c>
       <c r="L231" s="72">
-        <v>11.303000000000004</v>
+        <v>11.302999999999997</v>
       </c>
       <c r="M231" s="72">
-        <v>15.368</v>
+        <v>15.367999999999999</v>
       </c>
       <c r="N231" s="72">
-        <v>35.599000000000004</v>
+        <v>35.598999999999997</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -18999,7 +18999,7 @@
         <v>24.249000000000002</v>
       </c>
       <c r="M232" s="72">
-        <v>11.35</v>
+        <v>11.350000000000001</v>
       </c>
       <c r="N232" s="72">
         <v>29.937000000000005</v>
@@ -19889,7 +19889,7 @@
         <v>70</v>
       </c>
       <c r="K254" s="72">
-        <v>49.475999999999999</v>
+        <v>49.476000000000013</v>
       </c>
       <c r="L254" s="72">
         <v>0</v>
@@ -19898,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="N254" s="72">
-        <v>49.475999999999999</v>
+        <v>49.476000000000013</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
@@ -19936,13 +19936,13 @@
         <v>19.667999999999999</v>
       </c>
       <c r="L255" s="72">
-        <v>40.346000000000011</v>
+        <v>40.346000000000004</v>
       </c>
       <c r="M255" s="72">
         <v>9.129999999999999</v>
       </c>
       <c r="N255" s="72">
-        <v>60.01400000000001</v>
+        <v>60.014000000000003</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -19980,13 +19980,13 @@
         <v>3.5030000000000001</v>
       </c>
       <c r="L256" s="72">
-        <v>7.5710000000000015</v>
+        <v>7.570999999999998</v>
       </c>
       <c r="M256" s="72">
-        <v>52.442999999999998</v>
+        <v>52.443000000000005</v>
       </c>
       <c r="N256" s="72">
-        <v>11.074000000000002</v>
+        <v>11.073999999999998</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="M257" s="72">
-        <v>11.074000000000002</v>
+        <v>11.073999999999998</v>
       </c>
       <c r="N257" s="72">
         <v>0</v>
@@ -21093,16 +21093,16 @@
         <v>70</v>
       </c>
       <c r="K283" s="72">
-        <v>120.14</v>
+        <v>120.13999999999999</v>
       </c>
       <c r="L283" s="72">
-        <v>103.16500000000003</v>
+        <v>103.16500000000002</v>
       </c>
       <c r="M283" s="72">
         <v>14.776</v>
       </c>
       <c r="N283" s="72">
-        <v>223.30500000000004</v>
+        <v>223.30500000000001</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -21140,13 +21140,13 @@
         <v>56.611000000000004</v>
       </c>
       <c r="L284" s="72">
-        <v>153.565</v>
+        <v>153.56500000000005</v>
       </c>
       <c r="M284" s="72">
-        <v>69.740000000000009</v>
+        <v>69.739999999999981</v>
       </c>
       <c r="N284" s="72">
-        <v>210.17599999999999</v>
+        <v>210.17600000000004</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
@@ -21181,10 +21181,10 @@
         <v>70</v>
       </c>
       <c r="K285" s="72">
-        <v>41.489999999999995</v>
+        <v>41.49</v>
       </c>
       <c r="L285" s="72">
-        <v>85.271000000000001</v>
+        <v>85.270999999999987</v>
       </c>
       <c r="M285" s="72">
         <v>124.905</v>
@@ -23256,13 +23256,13 @@
         <v>6.9930000000000003</v>
       </c>
       <c r="L337" s="72">
-        <v>65.421000000000021</v>
+        <v>65.421000000000006</v>
       </c>
       <c r="M337" s="72">
-        <v>107.253</v>
+        <v>107.25299999999999</v>
       </c>
       <c r="N337" s="72">
-        <v>72.414000000000016</v>
+        <v>72.414000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="M338" s="72">
-        <v>72.414000000000016</v>
+        <v>72.414000000000001</v>
       </c>
       <c r="N338" s="72">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>70</v>
       </c>
       <c r="K372" s="72">
-        <v>63.128999999999998</v>
+        <v>63.128999999999991</v>
       </c>
       <c r="L372" s="72">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="N372" s="72">
-        <v>63.128999999999998</v>
+        <v>63.128999999999991</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
@@ -24693,16 +24693,16 @@
         <v>70</v>
       </c>
       <c r="K373" s="72">
-        <v>15.368</v>
+        <v>15.367999999999999</v>
       </c>
       <c r="L373" s="72">
-        <v>31.293999999999997</v>
+        <v>31.294000000000008</v>
       </c>
       <c r="M373" s="72">
         <v>31.835000000000001</v>
       </c>
       <c r="N373" s="72">
-        <v>46.661999999999999</v>
+        <v>46.662000000000006</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="M374" s="72">
-        <v>46.661999999999999</v>
+        <v>46.662000000000006</v>
       </c>
       <c r="N374" s="72">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>70</v>
       </c>
       <c r="K408" s="72">
-        <v>102.176</v>
+        <v>102.17599999999999</v>
       </c>
       <c r="L408" s="72">
         <v>0</v>
@@ -26098,7 +26098,7 @@
         <v>0</v>
       </c>
       <c r="N408" s="72">
-        <v>102.176</v>
+        <v>102.17599999999999</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
@@ -26136,13 +26136,13 @@
         <v>13.633000000000001</v>
       </c>
       <c r="L409" s="72">
-        <v>65.703999999999994</v>
+        <v>65.704000000000008</v>
       </c>
       <c r="M409" s="72">
-        <v>36.472000000000001</v>
+        <v>36.471999999999994</v>
       </c>
       <c r="N409" s="72">
-        <v>79.336999999999989</v>
+        <v>79.337000000000003</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
@@ -26180,7 +26180,7 @@
         <v>0</v>
       </c>
       <c r="M410" s="72">
-        <v>79.336999999999989</v>
+        <v>79.337000000000003</v>
       </c>
       <c r="N410" s="72">
         <v>0</v>
@@ -26809,7 +26809,7 @@
         <v>70</v>
       </c>
       <c r="K426" s="72">
-        <v>126.57599999999999</v>
+        <v>126.57600000000001</v>
       </c>
       <c r="L426" s="72">
         <v>0</v>
@@ -26818,7 +26818,7 @@
         <v>0</v>
       </c>
       <c r="N426" s="72">
-        <v>126.57599999999999</v>
+        <v>126.57600000000001</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.25">
@@ -26853,10 +26853,10 @@
         <v>70</v>
       </c>
       <c r="K427" s="72">
-        <v>86.527000000000015</v>
+        <v>86.526999999999987</v>
       </c>
       <c r="L427" s="72">
-        <v>112.77399999999997</v>
+        <v>112.774</v>
       </c>
       <c r="M427" s="72">
         <v>13.802</v>
@@ -27441,7 +27441,7 @@
         <v>70</v>
       </c>
       <c r="K442" s="72">
-        <v>43.598999999999997</v>
+        <v>43.599000000000004</v>
       </c>
       <c r="L442" s="72">
         <v>0</v>
@@ -27450,7 +27450,7 @@
         <v>0</v>
       </c>
       <c r="N442" s="72">
-        <v>43.598999999999997</v>
+        <v>43.599000000000004</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.25">
@@ -27488,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="M443" s="72">
-        <v>43.598999999999997</v>
+        <v>43.599000000000004</v>
       </c>
       <c r="N443" s="72">
         <v>0</v>
@@ -28705,7 +28705,7 @@
         <v>70</v>
       </c>
       <c r="K474" s="72">
-        <v>111.96799999999999</v>
+        <v>111.96800000000002</v>
       </c>
       <c r="L474" s="72">
         <v>0</v>
@@ -28714,7 +28714,7 @@
         <v>0</v>
       </c>
       <c r="N474" s="72">
-        <v>111.96799999999999</v>
+        <v>111.96800000000002</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.25">
@@ -28749,7 +28749,7 @@
         <v>70</v>
       </c>
       <c r="K475" s="72">
-        <v>36.612000000000009</v>
+        <v>36.612000000000002</v>
       </c>
       <c r="L475" s="72">
         <v>83.528999999999996</v>
@@ -28758,7 +28758,7 @@
         <v>28.439</v>
       </c>
       <c r="N475" s="72">
-        <v>120.14100000000001</v>
+        <v>120.14099999999999</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.25">
@@ -28793,16 +28793,16 @@
         <v>70</v>
       </c>
       <c r="K476" s="72">
-        <v>38.693000000000005</v>
+        <v>38.692999999999998</v>
       </c>
       <c r="L476" s="72">
-        <v>51.733999999999988</v>
+        <v>51.734000000000009</v>
       </c>
       <c r="M476" s="72">
         <v>68.407000000000011</v>
       </c>
       <c r="N476" s="72">
-        <v>90.426999999999992</v>
+        <v>90.427000000000007</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.25">
@@ -28837,10 +28837,10 @@
         <v>70</v>
       </c>
       <c r="K477" s="72">
-        <v>55.712000000000003</v>
+        <v>55.711999999999996</v>
       </c>
       <c r="L477" s="72">
-        <v>70.094000000000008</v>
+        <v>70.094000000000023</v>
       </c>
       <c r="M477" s="72">
         <v>20.332999999999998</v>
@@ -28884,13 +28884,13 @@
         <v>14.414000000000001</v>
       </c>
       <c r="L478" s="72">
-        <v>65.233000000000004</v>
+        <v>65.23299999999999</v>
       </c>
       <c r="M478" s="72">
-        <v>60.572999999999993</v>
+        <v>60.573</v>
       </c>
       <c r="N478" s="72">
-        <v>79.647000000000006</v>
+        <v>79.646999999999991</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.25">
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="M479" s="72">
-        <v>79.647000000000006</v>
+        <v>79.646999999999991</v>
       </c>
       <c r="N479" s="72">
         <v>0</v>
@@ -30217,7 +30217,7 @@
         <v>70</v>
       </c>
       <c r="K510" s="72">
-        <v>125.533</v>
+        <v>125.53300000000002</v>
       </c>
       <c r="L510" s="72">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="N510" s="72">
-        <v>125.533</v>
+        <v>125.53300000000002</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.25">
@@ -30264,13 +30264,13 @@
         <v>94.424000000000007</v>
       </c>
       <c r="L511" s="72">
-        <v>101.82799999999997</v>
+        <v>101.828</v>
       </c>
       <c r="M511" s="72">
         <v>23.705000000000002</v>
       </c>
       <c r="N511" s="72">
-        <v>196.25199999999998</v>
+        <v>196.25200000000001</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.25">
@@ -30355,7 +30355,7 @@
         <v>39.326000000000001</v>
       </c>
       <c r="M513" s="72">
-        <v>117.64500000000001</v>
+        <v>117.645</v>
       </c>
       <c r="N513" s="72">
         <v>67.578000000000003</v>
@@ -31729,7 +31729,7 @@
         <v>70</v>
       </c>
       <c r="K546" s="72">
-        <v>125.40699999999998</v>
+        <v>125.40700000000001</v>
       </c>
       <c r="L546" s="72">
         <v>0</v>
@@ -31738,7 +31738,7 @@
         <v>0</v>
       </c>
       <c r="N546" s="72">
-        <v>125.40699999999998</v>
+        <v>125.40700000000001</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.25">
@@ -31776,13 +31776,13 @@
         <v>33.388999999999996</v>
       </c>
       <c r="L547" s="72">
-        <v>96.968000000000004</v>
+        <v>96.968000000000032</v>
       </c>
       <c r="M547" s="72">
         <v>28.439</v>
       </c>
       <c r="N547" s="72">
-        <v>130.357</v>
+        <v>130.35700000000003</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.25">
@@ -31817,16 +31817,16 @@
         <v>70</v>
       </c>
       <c r="K548" s="72">
-        <v>41.400000000000006</v>
+        <v>41.4</v>
       </c>
       <c r="L548" s="72">
-        <v>61.949999999999989</v>
+        <v>61.95000000000001</v>
       </c>
       <c r="M548" s="72">
         <v>68.407000000000011</v>
       </c>
       <c r="N548" s="72">
-        <v>103.35</v>
+        <v>103.35000000000001</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.25">
@@ -31861,7 +31861,7 @@
         <v>70</v>
       </c>
       <c r="K549" s="72">
-        <v>29.241000000000003</v>
+        <v>29.241</v>
       </c>
       <c r="L549" s="72">
         <v>83.019000000000005</v>
@@ -33288,13 +33288,13 @@
         <v>33.507000000000005</v>
       </c>
       <c r="L583" s="72">
-        <v>100.83499999999998</v>
+        <v>100.83500000000004</v>
       </c>
       <c r="M583" s="72">
         <v>12.047999999999998</v>
       </c>
       <c r="N583" s="72">
-        <v>134.34199999999998</v>
+        <v>134.34200000000004</v>
       </c>
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.25">
@@ -33379,7 +33379,7 @@
         <v>34.158000000000001</v>
       </c>
       <c r="M585" s="72">
-        <v>99.16100000000003</v>
+        <v>99.161000000000001</v>
       </c>
       <c r="N585" s="72">
         <v>62.410000000000004</v>
@@ -33420,13 +33420,13 @@
         <v>17.649000000000001</v>
       </c>
       <c r="L586" s="72">
-        <v>45.350000000000009</v>
+        <v>45.349999999999994</v>
       </c>
       <c r="M586" s="72">
         <v>17.060000000000002</v>
       </c>
       <c r="N586" s="72">
-        <v>62.999000000000009</v>
+        <v>62.998999999999995</v>
       </c>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.25">
@@ -34803,7 +34803,7 @@
         <v>123.96300000000002</v>
       </c>
       <c r="M619" s="72">
-        <v>26.431999999999999</v>
+        <v>26.432000000000002</v>
       </c>
       <c r="N619" s="72">
         <v>159.22300000000001</v>
@@ -34891,10 +34891,10 @@
         <v>90.09</v>
       </c>
       <c r="M621" s="72">
-        <v>30.824000000000005</v>
+        <v>30.823999999999998</v>
       </c>
       <c r="N621" s="72">
-        <v>100.264</v>
+        <v>100.26400000000001</v>
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.25">
@@ -34935,7 +34935,7 @@
         <v>37.429000000000002</v>
       </c>
       <c r="M622" s="72">
-        <v>62.834999999999994</v>
+        <v>62.835000000000008</v>
       </c>
       <c r="N622" s="72">
         <v>39.853999999999999</v>
@@ -36309,16 +36309,16 @@
         <v>70</v>
       </c>
       <c r="K655" s="72">
-        <v>61.625</v>
+        <v>61.625000000000007</v>
       </c>
       <c r="L655" s="72">
-        <v>89.904999999999973</v>
+        <v>89.905000000000001</v>
       </c>
       <c r="M655" s="72">
         <v>4.1059999999999999</v>
       </c>
       <c r="N655" s="72">
-        <v>151.52999999999997</v>
+        <v>151.53</v>
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.25">
@@ -36356,13 +36356,13 @@
         <v>24.344000000000001</v>
       </c>
       <c r="L656" s="72">
-        <v>136.23100000000002</v>
+        <v>136.23099999999999</v>
       </c>
       <c r="M656" s="72">
         <v>15.298999999999999</v>
       </c>
       <c r="N656" s="72">
-        <v>160.57500000000002</v>
+        <v>160.57499999999999</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.25">
@@ -36403,7 +36403,7 @@
         <v>44.253999999999998</v>
       </c>
       <c r="M657" s="72">
-        <v>116.321</v>
+        <v>116.32100000000001</v>
       </c>
       <c r="N657" s="72">
         <v>57.082999999999998</v>
@@ -36444,13 +36444,13 @@
         <v>4.5240000000000009</v>
       </c>
       <c r="L658" s="72">
-        <v>32.914000000000001</v>
+        <v>32.913999999999994</v>
       </c>
       <c r="M658" s="72">
-        <v>24.169</v>
+        <v>24.169000000000004</v>
       </c>
       <c r="N658" s="72">
-        <v>37.438000000000002</v>
+        <v>37.437999999999995</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.25">
@@ -37827,7 +37827,7 @@
         <v>210.49899999999997</v>
       </c>
       <c r="M691" s="72">
-        <v>16.202999999999999</v>
+        <v>16.203000000000003</v>
       </c>
       <c r="N691" s="72">
         <v>229.73399999999998</v>
@@ -37868,13 +37868,13 @@
         <v>20.954000000000001</v>
       </c>
       <c r="L692" s="72">
-        <v>207.91500000000002</v>
+        <v>207.91499999999999</v>
       </c>
       <c r="M692" s="72">
         <v>21.819000000000003</v>
       </c>
       <c r="N692" s="72">
-        <v>228.86900000000003</v>
+        <v>228.869</v>
       </c>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.25">
@@ -37909,7 +37909,7 @@
         <v>70</v>
       </c>
       <c r="K693" s="72">
-        <v>58.379999999999995</v>
+        <v>58.38</v>
       </c>
       <c r="L693" s="72">
         <v>194.166</v>
@@ -37956,13 +37956,13 @@
         <v>35.165000000000006</v>
       </c>
       <c r="L694" s="72">
-        <v>59.836999999999975</v>
+        <v>59.837000000000003</v>
       </c>
       <c r="M694" s="72">
         <v>192.709</v>
       </c>
       <c r="N694" s="72">
-        <v>95.001999999999981</v>
+        <v>95.00200000000001</v>
       </c>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.25">
@@ -38000,7 +38000,7 @@
         <v>0</v>
       </c>
       <c r="M695" s="72">
-        <v>95.001999999999981</v>
+        <v>95.00200000000001</v>
       </c>
       <c r="N695" s="72">
         <v>0</v>
@@ -39260,7 +39260,7 @@
         <v>0</v>
       </c>
       <c r="M725" s="72">
-        <v>37.812000000000005</v>
+        <v>37.811999999999998</v>
       </c>
       <c r="N725" s="72">
         <v>0</v>
@@ -39289,7 +39289,7 @@
         <v>70</v>
       </c>
       <c r="K726" s="72">
-        <v>116.81199999999998</v>
+        <v>116.812</v>
       </c>
       <c r="L726" s="72">
         <v>0</v>
@@ -39298,7 +39298,7 @@
         <v>0</v>
       </c>
       <c r="N726" s="72">
-        <v>116.81199999999998</v>
+        <v>116.812</v>
       </c>
     </row>
     <row r="727" spans="1:14" x14ac:dyDescent="0.25">
@@ -39333,13 +39333,13 @@
         <v>70</v>
       </c>
       <c r="K727" s="72">
-        <v>40.657000000000004</v>
+        <v>40.656999999999996</v>
       </c>
       <c r="L727" s="72">
-        <v>30.291000000000004</v>
+        <v>30.291000000000011</v>
       </c>
       <c r="M727" s="72">
-        <v>86.521000000000001</v>
+        <v>86.520999999999987</v>
       </c>
       <c r="N727" s="72">
         <v>70.948000000000008</v>
@@ -39424,13 +39424,13 @@
         <v>3.835</v>
       </c>
       <c r="L729" s="72">
-        <v>41.784000000000006</v>
+        <v>41.783999999999999</v>
       </c>
       <c r="M729" s="72">
-        <v>12.004</v>
+        <v>12.004000000000001</v>
       </c>
       <c r="N729" s="72">
-        <v>45.619000000000007</v>
+        <v>45.619</v>
       </c>
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.25">
@@ -39468,13 +39468,13 @@
         <v>2.0529999999999999</v>
       </c>
       <c r="L730" s="72">
-        <v>37.893000000000015</v>
+        <v>37.893000000000008</v>
       </c>
       <c r="M730" s="72">
-        <v>7.7259999999999991</v>
+        <v>7.726</v>
       </c>
       <c r="N730" s="72">
-        <v>39.946000000000012</v>
+        <v>39.946000000000005</v>
       </c>
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.25">
@@ -40936,13 +40936,13 @@
         <v>2.8789999999999996</v>
       </c>
       <c r="L765" s="72">
-        <v>29.492000000000004</v>
+        <v>29.491999999999997</v>
       </c>
       <c r="M765" s="72">
         <v>14.103</v>
       </c>
       <c r="N765" s="72">
-        <v>32.371000000000002</v>
+        <v>32.370999999999995</v>
       </c>
     </row>
     <row r="766" spans="1:14" x14ac:dyDescent="0.25">
@@ -40983,7 +40983,7 @@
         <v>0</v>
       </c>
       <c r="M766" s="72">
-        <v>32.371000000000002</v>
+        <v>32.370999999999995</v>
       </c>
       <c r="N766" s="72">
         <v>11.975000000000001</v>
@@ -42448,13 +42448,13 @@
         <v>53.833999999999996</v>
       </c>
       <c r="L801" s="72">
-        <v>39.020000000000017</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="M801" s="72">
         <v>139.53699999999998</v>
       </c>
       <c r="N801" s="72">
-        <v>92.854000000000013</v>
+        <v>92.853999999999999</v>
       </c>
     </row>
     <row r="802" spans="1:14" x14ac:dyDescent="0.25">
@@ -43869,13 +43869,13 @@
         <v>70</v>
       </c>
       <c r="K835" s="72">
-        <v>10.986000000000002</v>
+        <v>10.986000000000001</v>
       </c>
       <c r="L835" s="72">
         <v>82.334999999999994</v>
       </c>
       <c r="M835" s="72">
-        <v>16.2</v>
+        <v>16.200000000000003</v>
       </c>
       <c r="N835" s="72">
         <v>93.320999999999998</v>
@@ -44001,13 +44001,13 @@
         <v>70</v>
       </c>
       <c r="K838" s="72">
-        <v>16.742000000000001</v>
+        <v>16.741999999999997</v>
       </c>
       <c r="L838" s="72">
         <v>65.445999999999998</v>
       </c>
       <c r="M838" s="72">
-        <v>53.595999999999989</v>
+        <v>53.596000000000004</v>
       </c>
       <c r="N838" s="72">
         <v>82.188000000000002</v>
@@ -45308,7 +45308,7 @@
         <v>0</v>
       </c>
       <c r="M869" s="72">
-        <v>16.189999999999998</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="N869" s="72">
         <v>0</v>
@@ -45337,7 +45337,7 @@
         <v>70</v>
       </c>
       <c r="K870" s="72">
-        <v>121.851</v>
+        <v>121.85099999999994</v>
       </c>
       <c r="L870" s="72">
         <v>0</v>
@@ -45346,7 +45346,7 @@
         <v>0</v>
       </c>
       <c r="N870" s="72">
-        <v>121.851</v>
+        <v>121.85099999999994</v>
       </c>
     </row>
     <row r="871" spans="1:14" x14ac:dyDescent="0.25">
@@ -45384,13 +45384,13 @@
         <v>35.795999999999999</v>
       </c>
       <c r="L871" s="72">
-        <v>80.420000000000016</v>
+        <v>80.419999999999987</v>
       </c>
       <c r="M871" s="72">
         <v>41.430999999999997</v>
       </c>
       <c r="N871" s="72">
-        <v>116.21600000000001</v>
+        <v>116.21599999999999</v>
       </c>
     </row>
     <row r="872" spans="1:14" x14ac:dyDescent="0.25">
@@ -45431,7 +45431,7 @@
         <v>22.093</v>
       </c>
       <c r="M872" s="72">
-        <v>94.12299999999999</v>
+        <v>94.123000000000005</v>
       </c>
       <c r="N872" s="72">
         <v>32.253</v>
@@ -45472,13 +45472,13 @@
         <v>3.835</v>
       </c>
       <c r="L873" s="72">
-        <v>21.099</v>
+        <v>21.099000000000004</v>
       </c>
       <c r="M873" s="72">
         <v>11.154</v>
       </c>
       <c r="N873" s="72">
-        <v>24.934000000000001</v>
+        <v>24.934000000000005</v>
       </c>
     </row>
     <row r="874" spans="1:14" x14ac:dyDescent="0.25">
@@ -46849,7 +46849,7 @@
         <v>70</v>
       </c>
       <c r="K906" s="72">
-        <v>113.261</v>
+        <v>113.26100000000001</v>
       </c>
       <c r="L906" s="72">
         <v>0</v>
@@ -46858,7 +46858,7 @@
         <v>0</v>
       </c>
       <c r="N906" s="72">
-        <v>113.261</v>
+        <v>113.26100000000001</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.25">
@@ -46896,13 +46896,13 @@
         <v>58.457000000000001</v>
       </c>
       <c r="L907" s="72">
-        <v>42.348999999999997</v>
+        <v>42.349000000000011</v>
       </c>
       <c r="M907" s="72">
         <v>70.912000000000006</v>
       </c>
       <c r="N907" s="72">
-        <v>100.806</v>
+        <v>100.80600000000001</v>
       </c>
     </row>
     <row r="908" spans="1:14" x14ac:dyDescent="0.25">
@@ -46937,16 +46937,16 @@
         <v>70</v>
       </c>
       <c r="K908" s="72">
-        <v>210.08800000000002</v>
+        <v>210.08799999999999</v>
       </c>
       <c r="L908" s="72">
-        <v>39.564000000000021</v>
+        <v>39.563999999999993</v>
       </c>
       <c r="M908" s="72">
-        <v>61.242000000000004</v>
+        <v>61.241999999999997</v>
       </c>
       <c r="N908" s="72">
-        <v>249.65200000000004</v>
+        <v>249.65199999999999</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.25">
@@ -46987,7 +46987,7 @@
         <v>201.233</v>
       </c>
       <c r="M909" s="72">
-        <v>48.419000000000004</v>
+        <v>48.418999999999997</v>
       </c>
       <c r="N909" s="72">
         <v>216.17099999999999</v>
@@ -47028,13 +47028,13 @@
         <v>11.754000000000001</v>
       </c>
       <c r="L910" s="72">
-        <v>185.83600000000004</v>
+        <v>185.83600000000001</v>
       </c>
       <c r="M910" s="72">
-        <v>30.334999999999997</v>
+        <v>30.335000000000001</v>
       </c>
       <c r="N910" s="72">
-        <v>197.59000000000003</v>
+        <v>197.59</v>
       </c>
     </row>
     <row r="911" spans="1:14" x14ac:dyDescent="0.25">
@@ -47072,7 +47072,7 @@
         <v>0</v>
       </c>
       <c r="M911" s="72">
-        <v>197.59000000000003</v>
+        <v>197.59</v>
       </c>
       <c r="N911" s="72">
         <v>0</v>
@@ -48408,13 +48408,13 @@
         <v>24.597999999999999</v>
       </c>
       <c r="L943" s="72">
-        <v>34.196000000000005</v>
+        <v>34.195999999999991</v>
       </c>
       <c r="M943" s="72">
         <v>2.4329999999999998</v>
       </c>
       <c r="N943" s="72">
-        <v>58.794000000000004</v>
+        <v>58.79399999999999</v>
       </c>
     </row>
     <row r="944" spans="1:14" x14ac:dyDescent="0.25">
@@ -48449,7 +48449,7 @@
         <v>70</v>
       </c>
       <c r="K944" s="72">
-        <v>47.236000000000004</v>
+        <v>47.23599999999999</v>
       </c>
       <c r="L944" s="72">
         <v>54.441000000000003</v>
@@ -48458,7 +48458,7 @@
         <v>4.3530000000000006</v>
       </c>
       <c r="N944" s="72">
-        <v>101.67700000000001</v>
+        <v>101.67699999999999</v>
       </c>
     </row>
     <row r="945" spans="1:14" x14ac:dyDescent="0.25">
@@ -48499,7 +48499,7 @@
         <v>32.456999999999994</v>
       </c>
       <c r="M945" s="72">
-        <v>69.220000000000013</v>
+        <v>69.22</v>
       </c>
       <c r="N945" s="72">
         <v>118.71899999999999</v>
@@ -48540,13 +48540,13 @@
         <v>17.062000000000001</v>
       </c>
       <c r="L946" s="72">
-        <v>70.430000000000007</v>
+        <v>70.430000000000021</v>
       </c>
       <c r="M946" s="72">
         <v>48.289000000000001</v>
       </c>
       <c r="N946" s="72">
-        <v>87.492000000000004</v>
+        <v>87.492000000000019</v>
       </c>
     </row>
     <row r="947" spans="1:14" x14ac:dyDescent="0.25">
@@ -50348,7 +50348,7 @@
         <v>0</v>
       </c>
       <c r="M989" s="72">
-        <v>47.008000000000003</v>
+        <v>47.007999999999996</v>
       </c>
       <c r="N989" s="72">
         <v>0</v>
@@ -50421,10 +50421,10 @@
         <v>70</v>
       </c>
       <c r="K991" s="72">
-        <v>33.654000000000003</v>
+        <v>33.653999999999996</v>
       </c>
       <c r="L991" s="72">
-        <v>30.235999999999997</v>
+        <v>30.236000000000004</v>
       </c>
       <c r="M991" s="72">
         <v>1.234</v>
@@ -50468,13 +50468,13 @@
         <v>74.932999999999993</v>
       </c>
       <c r="L992" s="72">
-        <v>49.197000000000003</v>
+        <v>49.197000000000017</v>
       </c>
       <c r="M992" s="72">
         <v>14.693</v>
       </c>
       <c r="N992" s="72">
-        <v>124.13</v>
+        <v>124.13000000000001</v>
       </c>
     </row>
     <row r="993" spans="1:14" x14ac:dyDescent="0.25">
@@ -50559,7 +50559,7 @@
         <v>64.153999999999996</v>
       </c>
       <c r="M994" s="72">
-        <v>37.387999999999998</v>
+        <v>37.388000000000005</v>
       </c>
       <c r="N994" s="72">
         <v>79.533999999999992</v>
@@ -50676,13 +50676,13 @@
         <v>69.244</v>
       </c>
       <c r="L997" s="72">
-        <v>55.704000000000008</v>
+        <v>55.703999999999979</v>
       </c>
       <c r="M997" s="72">
         <v>2.1139999999999999</v>
       </c>
       <c r="N997" s="72">
-        <v>124.94800000000001</v>
+        <v>124.94799999999998</v>
       </c>
     </row>
     <row r="998" spans="1:14" x14ac:dyDescent="0.25">
@@ -50723,7 +50723,7 @@
         <v>97.810999999999993</v>
       </c>
       <c r="M998" s="72">
-        <v>27.137000000000004</v>
+        <v>27.137</v>
       </c>
       <c r="N998" s="72">
         <v>137.54599999999999</v>
@@ -50761,10 +50761,10 @@
         <v>70</v>
       </c>
       <c r="K999" s="72">
-        <v>59.286999999999999</v>
+        <v>59.287000000000006</v>
       </c>
       <c r="L999" s="72">
-        <v>61.844000000000001</v>
+        <v>61.843999999999994</v>
       </c>
       <c r="M999" s="72">
         <v>75.701999999999998</v>
@@ -50811,7 +50811,7 @@
         <v>47.718000000000011</v>
       </c>
       <c r="M1000" s="72">
-        <v>73.413000000000011</v>
+        <v>73.412999999999982</v>
       </c>
       <c r="N1000" s="72">
         <v>53.466000000000008</v>
@@ -53193,16 +53193,16 @@
         <v>70</v>
       </c>
       <c r="K1057" s="72">
-        <v>54.650000000000006</v>
+        <v>54.65</v>
       </c>
       <c r="L1057" s="72">
-        <v>71.798000000000002</v>
+        <v>71.79800000000003</v>
       </c>
       <c r="M1057" s="72">
         <v>6.2129999999999992</v>
       </c>
       <c r="N1057" s="72">
-        <v>126.44800000000001</v>
+        <v>126.44800000000002</v>
       </c>
     </row>
     <row r="1058" spans="1:14" x14ac:dyDescent="0.25">
@@ -53237,16 +53237,16 @@
         <v>70</v>
       </c>
       <c r="K1058" s="72">
-        <v>28.606000000000002</v>
+        <v>28.605999999999998</v>
       </c>
       <c r="L1058" s="72">
-        <v>31.657999999999994</v>
+        <v>31.658000000000005</v>
       </c>
       <c r="M1058" s="72">
-        <v>94.79000000000002</v>
+        <v>94.789999999999992</v>
       </c>
       <c r="N1058" s="72">
-        <v>60.263999999999996</v>
+        <v>60.264000000000003</v>
       </c>
     </row>
     <row r="1059" spans="1:14" x14ac:dyDescent="0.25">
@@ -53328,13 +53328,13 @@
         <v>1.8660000000000001</v>
       </c>
       <c r="L1060" s="72">
-        <v>21.603999999999999</v>
+        <v>21.604000000000003</v>
       </c>
       <c r="M1060" s="72">
-        <v>36.083999999999996</v>
+        <v>36.084000000000003</v>
       </c>
       <c r="N1060" s="72">
-        <v>23.47</v>
+        <v>23.470000000000002</v>
       </c>
     </row>
     <row r="1061" spans="1:14" x14ac:dyDescent="0.25">
@@ -53372,7 +53372,7 @@
         <v>0</v>
       </c>
       <c r="M1061" s="72">
-        <v>23.47</v>
+        <v>23.470000000000002</v>
       </c>
       <c r="N1061" s="72">
         <v>0</v>
@@ -53401,7 +53401,7 @@
         <v>70</v>
       </c>
       <c r="K1062" s="72">
-        <v>154.58700000000002</v>
+        <v>154.58699999999999</v>
       </c>
       <c r="L1062" s="72">
         <v>0</v>
@@ -53410,7 +53410,7 @@
         <v>0</v>
       </c>
       <c r="N1062" s="72">
-        <v>154.58700000000002</v>
+        <v>154.58699999999999</v>
       </c>
     </row>
     <row r="1063" spans="1:14" x14ac:dyDescent="0.25">
@@ -53451,7 +53451,7 @@
         <v>125.149</v>
       </c>
       <c r="M1063" s="72">
-        <v>29.437999999999999</v>
+        <v>29.438000000000002</v>
       </c>
       <c r="N1063" s="72">
         <v>158.14699999999999</v>
@@ -53492,13 +53492,13 @@
         <v>18.965</v>
       </c>
       <c r="L1064" s="72">
-        <v>29.535999999999991</v>
+        <v>29.535999999999998</v>
       </c>
       <c r="M1064" s="72">
-        <v>128.61100000000002</v>
+        <v>128.61099999999999</v>
       </c>
       <c r="N1064" s="72">
-        <v>48.500999999999991</v>
+        <v>48.500999999999998</v>
       </c>
     </row>
     <row r="1065" spans="1:14" x14ac:dyDescent="0.25">
@@ -57693,13 +57693,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930250000000001</v>
+        <v>46.930249999999994</v>
       </c>
       <c r="H7" s="72">
         <v>280</v>
       </c>
       <c r="I7" s="76">
-        <v>0.16760803571428573</v>
+        <v>0.1676080357142857</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -57780,13 +57780,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="72">
-        <v>296.44324999999992</v>
+        <v>296.44325000000021</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.84698071428571409</v>
+        <v>0.84698071428571486</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -57809,13 +57809,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="72">
-        <v>76.064000000000021</v>
+        <v>76.063999999999979</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.21732571428571434</v>
+        <v>0.21732571428571423</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -57925,13 +57925,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="72">
-        <v>103.20675000000003</v>
+        <v>103.20675000000004</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.73719107142857165</v>
+        <v>0.73719107142857176</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -57954,13 +57954,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="72">
-        <v>418.61850000000004</v>
+        <v>418.6185000000001</v>
       </c>
       <c r="H16" s="72">
         <v>420</v>
       </c>
       <c r="I16" s="76">
-        <v>0.99671071428571434</v>
+        <v>0.99671071428571456</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -58012,13 +58012,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="72">
-        <v>40.900000000000034</v>
+        <v>40.899999999999991</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.58428571428571474</v>
+        <v>0.58428571428571419</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -58041,13 +58041,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378000000000021</v>
+        <v>50.378000000000014</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.7196857142857146</v>
+        <v>0.71968571428571448</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -58215,7 +58215,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853499999999997</v>
+        <v>43.85349999999999</v>
       </c>
       <c r="H25" s="72">
         <v>70</v>
@@ -58331,13 +58331,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="72">
-        <v>126.28975000000003</v>
+        <v>126.28975000000005</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.60137976190476206</v>
+        <v>0.60137976190476217</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -58418,13 +58418,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="72">
-        <v>121.27874999999997</v>
+        <v>121.27875000000002</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.57751785714285697</v>
+        <v>0.57751785714285719</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -58447,13 +58447,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="72">
-        <v>175.43350000000004</v>
+        <v>175.43350000000001</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.83539761904761922</v>
+        <v>0.83539761904761911</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -58476,13 +58476,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="72">
-        <v>724.8520000000002</v>
+        <v>724.85199999999952</v>
       </c>
       <c r="H34" s="72">
         <v>770</v>
       </c>
       <c r="I34" s="76">
-        <v>0.94136623376623407</v>
+        <v>0.94136623376623318</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -58505,13 +58505,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="72">
-        <v>304.21774999999985</v>
+        <v>304.21774999999974</v>
       </c>
       <c r="H35" s="72">
         <v>770</v>
       </c>
       <c r="I35" s="76">
-        <v>0.39508798701298681</v>
+        <v>0.3950879870129867</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -58534,13 +58534,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="72">
-        <v>43.743500000000012</v>
+        <v>43.743499999999997</v>
       </c>
       <c r="H36" s="72">
         <v>70</v>
       </c>
       <c r="I36" s="76">
-        <v>0.62490714285714299</v>
+        <v>0.62490714285714277</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -58563,13 +58563,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="72">
-        <v>59.18075000000001</v>
+        <v>59.180750000000003</v>
       </c>
       <c r="H37" s="72">
         <v>70</v>
       </c>
       <c r="I37" s="76">
-        <v>0.84543928571428584</v>
+        <v>0.84543928571428573</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -58708,13 +58708,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="72">
-        <v>64.462499999999991</v>
+        <v>64.46249999999992</v>
       </c>
       <c r="H42" s="72">
         <v>70</v>
       </c>
       <c r="I42" s="76">
-        <v>0.92089285714285707</v>
+        <v>0.92089285714285596</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -58737,13 +58737,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="72">
-        <v>38.313250000000004</v>
+        <v>38.313249999999982</v>
       </c>
       <c r="H43" s="72">
         <v>70</v>
       </c>
       <c r="I43" s="76">
-        <v>0.54733214285714293</v>
+        <v>0.5473321428571426</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -58824,13 +58824,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="72">
-        <v>124.24325000000005</v>
+        <v>124.2432499999999</v>
       </c>
       <c r="H46" s="72">
         <v>140</v>
       </c>
       <c r="I46" s="76">
-        <v>0.88745178571428607</v>
+        <v>0.88745178571428507</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -58853,13 +58853,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="72">
-        <v>114.32925000000006</v>
+        <v>114.32925000000009</v>
       </c>
       <c r="H47" s="72">
         <v>140</v>
       </c>
       <c r="I47" s="76">
-        <v>0.81663750000000046</v>
+        <v>0.81663750000000057</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -58940,13 +58940,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="72">
-        <v>124.49675000000012</v>
+        <v>124.49675000000001</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.59284166666666727</v>
+        <v>0.59284166666666671</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -58969,13 +58969,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="72">
-        <v>188.66499999999999</v>
+        <v>188.66500000000002</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.89840476190476182</v>
+        <v>0.89840476190476204</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -58998,13 +58998,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="72">
-        <v>413.38474999999971</v>
+        <v>413.38474999999983</v>
       </c>
       <c r="H52" s="72">
         <v>560</v>
       </c>
       <c r="I52" s="76">
-        <v>0.73818705357142811</v>
+        <v>0.73818705357142822</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -59027,13 +59027,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="72">
-        <v>525.06874999999957</v>
+        <v>525.06875000000002</v>
       </c>
       <c r="H53" s="72">
         <v>560</v>
       </c>
       <c r="I53" s="76">
-        <v>0.93762276785714205</v>
+        <v>0.93762276785714294</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -59056,13 +59056,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="72">
-        <v>43.967250000000021</v>
+        <v>43.967249999999986</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.62810357142857176</v>
+        <v>0.62810357142857121</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -59085,13 +59085,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393750000000011</v>
+        <v>63.393750000000004</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
       </c>
       <c r="I55" s="76">
-        <v>0.90562500000000012</v>
+        <v>0.90562500000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -59230,13 +59230,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="72">
-        <v>62.990999999999993</v>
+        <v>62.991</v>
       </c>
       <c r="H60" s="72">
         <v>70</v>
       </c>
       <c r="I60" s="76">
-        <v>0.89987142857142843</v>
+        <v>0.89987142857142854</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -59346,13 +59346,13 @@
         <v>0</v>
       </c>
       <c r="G64" s="72">
-        <v>183.98974999999996</v>
+        <v>183.98975000000004</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.87614166666666649</v>
+        <v>0.87614166666666682</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -59375,7 +59375,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="72">
-        <v>120.04725000000002</v>
+        <v>120.04725000000003</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
@@ -59462,13 +59462,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="72">
-        <v>128.22175000000001</v>
+        <v>128.22174999999999</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.61057976190476193</v>
+        <v>0.61057976190476182</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -59491,13 +59491,13 @@
         <v>0</v>
       </c>
       <c r="G69" s="72">
-        <v>166.96600000000004</v>
+        <v>166.96600000000001</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.7950761904761906</v>
+        <v>0.79507619047619049</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -59520,13 +59520,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="72">
-        <v>263.1892499999999</v>
+        <v>263.18924999999996</v>
       </c>
       <c r="H70" s="72">
         <v>280</v>
       </c>
       <c r="I70" s="76">
-        <v>0.93996160714285681</v>
+        <v>0.93996160714285704</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -59549,13 +59549,13 @@
         <v>0</v>
       </c>
       <c r="G71" s="72">
-        <v>219.71575000000001</v>
+        <v>219.71574999999993</v>
       </c>
       <c r="H71" s="72">
         <v>280</v>
       </c>
       <c r="I71" s="76">
-        <v>0.78469910714285718</v>
+        <v>0.78469910714285684</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -59578,13 +59578,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="72">
-        <v>45.395250000000011</v>
+        <v>45.395250000000019</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>0.64850357142857162</v>
+        <v>0.64850357142857173</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -59752,13 +59752,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000007</v>
+        <v>54.477749999999993</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.77825357142857154</v>
+        <v>0.77825357142857132</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -59781,13 +59781,13 @@
         <v>0</v>
       </c>
       <c r="G79" s="72">
-        <v>35.890000000000015</v>
+        <v>35.889999999999993</v>
       </c>
       <c r="H79" s="72">
         <v>70</v>
       </c>
       <c r="I79" s="76">
-        <v>0.5127142857142859</v>
+        <v>0.51271428571428557</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -59839,13 +59839,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="72">
-        <v>71.546750000000031</v>
+        <v>71.54675000000006</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.51104821428571456</v>
+        <v>0.51104821428571467</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -59868,13 +59868,13 @@
         <v>0</v>
       </c>
       <c r="G82" s="72">
-        <v>192.11724999999998</v>
+        <v>192.11724999999996</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.91484404761904758</v>
+        <v>0.91484404761904736</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -59897,13 +59897,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="72">
-        <v>86.186749999999975</v>
+        <v>86.186750000000004</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.4104130952380951</v>
+        <v>0.41041309523809527</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -59955,13 +59955,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="72">
-        <v>40.551999999999985</v>
+        <v>40.552</v>
       </c>
       <c r="H85" s="72">
         <v>210</v>
       </c>
       <c r="I85" s="76">
-        <v>0.19310476190476183</v>
+        <v>0.19310476190476189</v>
       </c>
     </row>
   </sheetData>
